--- a/documentation/Tiled Map Entities.xlsx
+++ b/documentation/Tiled Map Entities.xlsx
@@ -136,9 +136,6 @@
     <t xml:space="preserve">route:&lt;STRING&gt; </t>
   </si>
   <si>
-    <t>- name of the route the entity belongs to</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - ignored -</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
  - SeekAndDestroy
  - Guard
  - Peaceful (default)</t>
+  </si>
+  <si>
+    <t>Name of the route the entity belongs to</t>
   </si>
 </sst>
 </file>
@@ -161,13 +161,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -209,17 +209,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,191 +525,191 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="79.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Tiled Map Entities.xlsx
+++ b/documentation/Tiled Map Entities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Layer</t>
   </si>
@@ -147,12 +147,31 @@
   <si>
     <t>Name of the route the entity belongs to</t>
   </si>
+  <si>
+    <t>type:RouteMember</t>
+  </si>
+  <si>
+    <t>Define a member for route X</t>
+  </si>
+  <si>
+    <t>The name of the route this entity is a member of</t>
+  </si>
+  <si>
+    <t>The ship type that should attend the route
+Valid ship types are:
+ - merchant
+ - pirate
+ - crusader</t>
+  </si>
+  <si>
+    <t>The name of the entity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,13 +190,37 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -204,10 +247,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -215,14 +260,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -538,7 +600,7 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,162 +617,240 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/Tiled Map Entities.xlsx
+++ b/documentation/Tiled Map Entities.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Layer</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>The name of the entity</t>
+  </si>
+  <si>
+    <t>fraction:&lt;STRING&gt;</t>
+  </si>
+  <si>
+    <t>FERENGI/KLINGONEN</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -279,6 +285,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -780,77 +789,96 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
